--- a/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/选股标准.xlsx
+++ b/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/选股标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="13360"/>
+    <workbookView windowWidth="27180" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="估值" sheetId="4" r:id="rId1"/>
@@ -16,12 +16,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">估值!$L$2:$L$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="156">
   <si>
     <t>年份</t>
   </si>
@@ -81,7 +94,8 @@
     <t>当年自由现金流</t>
   </si>
   <si>
-    <t>加权资本成本率</t>
+    <t>加权资本成本率
+(折现率)</t>
   </si>
   <si>
     <t>增长率</t>
@@ -292,6 +306,9 @@
   </si>
   <si>
     <t>所得税税率</t>
+  </si>
+  <si>
+    <t>加权资本成本率</t>
   </si>
   <si>
     <t>固定资产折旧</t>
@@ -495,15 +512,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -548,22 +565,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -578,23 +620,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -602,15 +629,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +645,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +675,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,39 +695,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,7 +754,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +856,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,157 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,11 +1011,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,26 +1044,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,6 +1091,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1076,172 +1108,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,84 +1292,84 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1362,7 +1379,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,10 +1412,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1410,7 +1427,10 @@
     <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1435,6 +1455,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,9 +1470,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1465,69 +1485,69 @@
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1796,14 +1816,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CI14"/>
+  <dimension ref="A1:CI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BW5" sqref="BW5"/>
+      <selection pane="bottomRight" activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -1939,13 +1959,13 @@
       <c r="AM1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AN1" s="54" t="s">
+      <c r="AN1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AO1" s="61" t="s">
+      <c r="AO1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="61"/>
+      <c r="AP1" s="62"/>
       <c r="AQ1" s="41"/>
       <c r="AR1" s="44" t="s">
         <v>21</v>
@@ -1983,7 +2003,7 @@
       <c r="BC1" s="46"/>
       <c r="BD1" s="46"/>
       <c r="BE1" s="46"/>
-      <c r="BF1" s="65"/>
+      <c r="BF1" s="67"/>
       <c r="BG1" s="45" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +2011,7 @@
       <c r="BI1" s="46"/>
       <c r="BJ1" s="46"/>
       <c r="BK1" s="46"/>
-      <c r="BL1" s="66" t="s">
+      <c r="BL1" s="68" t="s">
         <v>33</v>
       </c>
       <c r="BM1" s="45" t="s">
@@ -2008,23 +2028,23 @@
       <c r="BT1" s="46"/>
       <c r="BU1" s="46"/>
       <c r="BV1" s="46"/>
-      <c r="BW1" s="67" t="s">
+      <c r="BW1" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="BX1" s="68"/>
-      <c r="BY1" s="68"/>
-      <c r="BZ1" s="68"/>
-      <c r="CA1" s="73"/>
-      <c r="CB1" s="74" t="s">
+      <c r="BX1" s="70"/>
+      <c r="BY1" s="70"/>
+      <c r="BZ1" s="70"/>
+      <c r="CA1" s="74"/>
+      <c r="CB1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="CC1" s="75" t="s">
+      <c r="CC1" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="CD1" s="75"/>
-      <c r="CE1" s="75"/>
-      <c r="CF1" s="75"/>
-      <c r="CG1" s="75"/>
+      <c r="CD1" s="76"/>
+      <c r="CE1" s="76"/>
+      <c r="CF1" s="76"/>
+      <c r="CG1" s="76"/>
       <c r="CH1" s="10" t="s">
         <v>39</v>
       </c>
@@ -2113,10 +2133,10 @@
       <c r="AL2" s="54"/>
       <c r="AM2" s="55"/>
       <c r="AN2" s="54"/>
-      <c r="AO2" s="61" t="s">
+      <c r="AO2" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="AP2" s="61" t="s">
+      <c r="AP2" s="62" t="s">
         <v>52</v>
       </c>
       <c r="AQ2" s="41" t="s">
@@ -2144,7 +2164,7 @@
       <c r="BE2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" s="65" t="s">
+      <c r="BF2" s="67" t="s">
         <v>58</v>
       </c>
       <c r="BG2" s="46" t="s">
@@ -2162,7 +2182,7 @@
       <c r="BK2" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="BL2" s="66"/>
+      <c r="BL2" s="68"/>
       <c r="BM2" s="46" t="s">
         <v>54</v>
       </c>
@@ -2208,20 +2228,20 @@
       <c r="CA2" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="CB2" s="74"/>
-      <c r="CC2" s="76" t="s">
+      <c r="CB2" s="75"/>
+      <c r="CC2" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="CD2" s="76" t="s">
+      <c r="CD2" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="CE2" s="77" t="s">
+      <c r="CE2" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="CF2" s="77" t="s">
+      <c r="CF2" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="CG2" s="76" t="s">
+      <c r="CG2" s="77" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2266,8 +2286,8 @@
       <c r="AL3" s="54"/>
       <c r="AM3" s="55"/>
       <c r="AN3" s="54"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
       <c r="AQ3" s="41"/>
       <c r="AR3" s="44"/>
       <c r="AS3" s="41"/>
@@ -2283,13 +2303,13 @@
       <c r="BC3" s="46"/>
       <c r="BD3" s="50"/>
       <c r="BE3" s="50"/>
-      <c r="BF3" s="65"/>
+      <c r="BF3" s="67"/>
       <c r="BG3" s="46"/>
       <c r="BH3" s="46"/>
       <c r="BI3" s="50"/>
       <c r="BJ3" s="50"/>
       <c r="BK3" s="46"/>
-      <c r="BL3" s="66"/>
+      <c r="BL3" s="68"/>
       <c r="BM3" s="46"/>
       <c r="BN3" s="46"/>
       <c r="BO3" s="50"/>
@@ -2300,17 +2320,17 @@
       <c r="BT3" s="50"/>
       <c r="BU3" s="50"/>
       <c r="BV3" s="46"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="70"/>
-      <c r="BY3" s="70"/>
-      <c r="BZ3" s="70"/>
-      <c r="CA3" s="70"/>
-      <c r="CB3" s="74"/>
-      <c r="CC3" s="76"/>
-      <c r="CD3" s="76"/>
-      <c r="CE3" s="77"/>
-      <c r="CF3" s="77"/>
-      <c r="CG3" s="76"/>
+      <c r="BW3" s="46"/>
+      <c r="BX3" s="71"/>
+      <c r="BY3" s="71"/>
+      <c r="BZ3" s="71"/>
+      <c r="CA3" s="71"/>
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="77"/>
+      <c r="CD3" s="77"/>
+      <c r="CE3" s="78"/>
+      <c r="CF3" s="78"/>
+      <c r="CG3" s="77"/>
     </row>
     <row r="4" spans="1:87">
       <c r="A4" s="41"/>
@@ -2351,7 +2371,7 @@
       <c r="AJ4" s="41"/>
       <c r="AK4" s="54"/>
       <c r="AL4" s="54"/>
-      <c r="AM4" s="56">
+      <c r="AM4" s="57">
         <v>6253994132.97455</v>
       </c>
       <c r="AN4" s="54">
@@ -2364,23 +2384,23 @@
         <v>0.15</v>
       </c>
       <c r="AQ4" s="41"/>
-      <c r="AR4" s="62">
+      <c r="AR4" s="63">
         <v>18223307402.03</v>
       </c>
       <c r="AS4" s="41"/>
       <c r="AT4" s="41"/>
-      <c r="AU4" s="62">
+      <c r="AU4" s="63">
         <v>6081662998.97</v>
       </c>
-      <c r="AV4" s="56">
+      <c r="AV4" s="57">
         <v>10738064.59</v>
       </c>
       <c r="AW4" s="41"/>
       <c r="AX4" s="41"/>
-      <c r="AY4" s="62">
+      <c r="AY4" s="63">
         <v>4131328.25</v>
       </c>
-      <c r="AZ4" s="62">
+      <c r="AZ4" s="63">
         <f>SUM(AR4:AY4)</f>
         <v>24319839793.84</v>
       </c>
@@ -2398,13 +2418,13 @@
         <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^4/(1+AN4)^4+AM4*(1+AP4)^5/(1+AN4)^5+AM4*(1+AP4)^5*(1+AO4)/(1+AN4)^6/(AN4-AO4)</f>
         <v>-622812562261.277</v>
       </c>
-      <c r="BF4" s="65"/>
+      <c r="BF4" s="67"/>
       <c r="BG4" s="46"/>
       <c r="BH4" s="46"/>
       <c r="BI4" s="50"/>
       <c r="BJ4" s="50"/>
       <c r="BK4" s="46"/>
-      <c r="BL4" s="66"/>
+      <c r="BL4" s="68"/>
       <c r="BM4" s="46"/>
       <c r="BN4" s="46"/>
       <c r="BO4" s="50"/>
@@ -2415,17 +2435,17 @@
       <c r="BT4" s="50"/>
       <c r="BU4" s="50"/>
       <c r="BV4" s="46"/>
-      <c r="BW4" s="69"/>
-      <c r="BX4" s="70"/>
-      <c r="BY4" s="70"/>
-      <c r="BZ4" s="70"/>
-      <c r="CA4" s="70"/>
-      <c r="CB4" s="74"/>
-      <c r="CC4" s="76"/>
-      <c r="CD4" s="76"/>
-      <c r="CE4" s="77"/>
-      <c r="CF4" s="77"/>
-      <c r="CG4" s="76"/>
+      <c r="BW4" s="46"/>
+      <c r="BX4" s="71"/>
+      <c r="BY4" s="71"/>
+      <c r="BZ4" s="71"/>
+      <c r="CA4" s="71"/>
+      <c r="CB4" s="75"/>
+      <c r="CC4" s="77"/>
+      <c r="CD4" s="77"/>
+      <c r="CE4" s="78"/>
+      <c r="CF4" s="78"/>
+      <c r="CG4" s="77"/>
       <c r="CH4" s="10">
         <f>(AM4*(1+AP4)^5)/(1+AN4)^5</f>
         <v>11232612532.4779</v>
@@ -2480,10 +2500,10 @@
       <c r="AJ5" s="41"/>
       <c r="AK5" s="54"/>
       <c r="AL5" s="54"/>
-      <c r="AM5" s="56">
+      <c r="AM5" s="57">
         <v>6253994132.97455</v>
       </c>
-      <c r="AN5" s="57">
+      <c r="AN5" s="58">
         <v>0.09</v>
       </c>
       <c r="AO5" s="53">
@@ -2493,23 +2513,23 @@
         <v>0.15</v>
       </c>
       <c r="AQ5" s="41"/>
-      <c r="AR5" s="62">
+      <c r="AR5" s="63">
         <v>18223307402.03</v>
       </c>
       <c r="AS5" s="41"/>
       <c r="AT5" s="41"/>
-      <c r="AU5" s="62">
+      <c r="AU5" s="63">
         <v>6081662998.97</v>
       </c>
-      <c r="AV5" s="56">
+      <c r="AV5" s="57">
         <v>10738064.59</v>
       </c>
       <c r="AW5" s="41"/>
       <c r="AX5" s="41"/>
-      <c r="AY5" s="62">
+      <c r="AY5" s="63">
         <v>4131328.25</v>
       </c>
-      <c r="AZ5" s="62">
+      <c r="AZ5" s="63">
         <f>SUM(AR5:AY5)</f>
         <v>24319839793.84</v>
       </c>
@@ -2530,96 +2550,96 @@
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^4/(1+AN5)^4+AM5*(1+AP5)^5/(1+AN5)^5+AM5*(1+AP5)^5*(1+AO5)/(1+AN5)^6/(AN5-AO5)</f>
         <v>155105237333.4</v>
       </c>
-      <c r="BF5" s="65"/>
-      <c r="BG5" s="62">
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="63">
         <f>$AZ5+$BA5+BB5</f>
         <v>93808663493.5572</v>
       </c>
-      <c r="BH5" s="62">
+      <c r="BH5" s="63">
         <f>$AZ5+$BA5+BC5</f>
         <v>122940516506.131</v>
       </c>
-      <c r="BI5" s="62">
+      <c r="BI5" s="63">
         <f>$AZ5+$BA5+BD5</f>
         <v>151480704511.625</v>
       </c>
-      <c r="BJ5" s="62">
+      <c r="BJ5" s="63">
         <f>$AZ5+$BA5+BE5</f>
         <v>179425077127.24</v>
       </c>
-      <c r="BK5" s="62">
+      <c r="BK5" s="63">
         <f>$AZ5+$BA5+BF5</f>
         <v>24319839793.84</v>
       </c>
-      <c r="BL5" s="64">
+      <c r="BL5" s="65">
         <f>C5-D5</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM5" s="62">
+      <c r="BM5" s="63">
         <f>BG5-$BL5</f>
         <v>83970787510.3572</v>
       </c>
-      <c r="BN5" s="62">
+      <c r="BN5" s="63">
         <f>BH5-$BL5</f>
         <v>113102640522.931</v>
       </c>
-      <c r="BO5" s="62">
+      <c r="BO5" s="63">
         <f>BI5-$BL5</f>
         <v>141642828528.425</v>
       </c>
-      <c r="BP5" s="62">
+      <c r="BP5" s="63">
         <f>BJ5-$BL5</f>
         <v>169587201144.04</v>
       </c>
-      <c r="BQ5" s="62">
+      <c r="BQ5" s="63">
         <f>BK5-$BL5</f>
         <v>14481963810.64</v>
       </c>
-      <c r="BR5" s="62">
+      <c r="BR5" s="63">
         <f>BM5*(1-$E5/$D5)</f>
         <v>83970787510.3572</v>
       </c>
-      <c r="BS5" s="62">
+      <c r="BS5" s="63">
         <f>BN5*(1-$E5/$D5)</f>
         <v>113102640522.931</v>
       </c>
-      <c r="BT5" s="62">
+      <c r="BT5" s="63">
         <f>BO5*(1-$E5/$D5)</f>
         <v>141642828528.425</v>
       </c>
-      <c r="BU5" s="62">
+      <c r="BU5" s="63">
         <f>BP5*(1-$E5/$D5)</f>
         <v>169587201144.04</v>
       </c>
-      <c r="BV5" s="62">
+      <c r="BV5" s="63">
         <f>BQ5*(1-$E5/$D5)</f>
         <v>14481963810.64</v>
       </c>
-      <c r="BW5" s="71"/>
-      <c r="BX5" s="70"/>
-      <c r="BY5" s="70"/>
-      <c r="BZ5" s="70"/>
-      <c r="CA5" s="70"/>
-      <c r="CB5" s="74">
+      <c r="BW5" s="72"/>
+      <c r="BX5" s="71"/>
+      <c r="BY5" s="71"/>
+      <c r="BZ5" s="71"/>
+      <c r="CA5" s="71"/>
+      <c r="CB5" s="75">
         <v>4633833787</v>
       </c>
-      <c r="CC5" s="78">
+      <c r="CC5" s="79">
         <f>BR5/$CB5</f>
         <v>18.121234245806</v>
       </c>
-      <c r="CD5" s="78">
+      <c r="CD5" s="79">
         <f>BS5/$CB5</f>
         <v>24.4080054921769</v>
       </c>
-      <c r="CE5" s="78">
+      <c r="CE5" s="79">
         <f>BT5/$CB5</f>
         <v>30.5670930463231</v>
       </c>
-      <c r="CF5" s="78">
+      <c r="CF5" s="79">
         <f>BU5/$CB5</f>
         <v>36.5976012389156</v>
       </c>
-      <c r="CG5" s="78">
+      <c r="CG5" s="79">
         <f>BV5/$CB5</f>
         <v>3.1252661351964</v>
       </c>
@@ -2669,10 +2689,10 @@
       <c r="AJ6" s="41"/>
       <c r="AK6" s="54"/>
       <c r="AL6" s="54"/>
-      <c r="AM6" s="58">
+      <c r="AM6" s="59">
         <v>5000000000</v>
       </c>
-      <c r="AN6" s="57">
+      <c r="AN6" s="58">
         <v>0.035</v>
       </c>
       <c r="AO6" s="53">
@@ -2682,23 +2702,23 @@
         <v>0.15</v>
       </c>
       <c r="AQ6" s="41"/>
-      <c r="AR6" s="62">
+      <c r="AR6" s="63">
         <v>19813767427.18</v>
       </c>
       <c r="AS6" s="41"/>
       <c r="AT6" s="41"/>
-      <c r="AU6" s="62">
+      <c r="AU6" s="63">
         <v>5377818664.42</v>
       </c>
-      <c r="AV6" s="64">
+      <c r="AV6" s="65">
         <v>16216013.8</v>
       </c>
       <c r="AW6" s="41"/>
       <c r="AX6" s="41"/>
-      <c r="AY6" s="62">
+      <c r="AY6" s="63">
         <v>4496708</v>
       </c>
-      <c r="AZ6" s="62">
+      <c r="AZ6" s="63">
         <f>SUM(AR6:AY6)</f>
         <v>25212298813.4</v>
       </c>
@@ -2719,96 +2739,96 @@
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^4/(1+AN6)^4+AM6*(1+AP6)^5/(1+AN6)^5+AM6*(1+AP6)^5*(1+AO6)/(1+AN6)^6/(AN6-AO6)</f>
         <v>-1667014543640.7</v>
       </c>
-      <c r="BF6" s="65"/>
-      <c r="BG6" s="62">
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="63">
         <f>$AZ6+$BA6+BB6</f>
         <v>168069441670.543</v>
       </c>
-      <c r="BH6" s="62">
+      <c r="BH6" s="63">
         <f>$AZ6+$BA6+BC6</f>
         <v>-1014787701186.6</v>
       </c>
-      <c r="BI6" s="62">
+      <c r="BI6" s="63">
         <f>$AZ6+$BA6+BD6</f>
         <v>-1334569481535.57</v>
       </c>
-      <c r="BJ6" s="62">
+      <c r="BJ6" s="63">
         <f>$AZ6+$BA6+BE6</f>
         <v>-1641802244827.3</v>
       </c>
-      <c r="BK6" s="62">
+      <c r="BK6" s="63">
         <f>$AZ6+$BA6+BF6</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BL6" s="64">
+      <c r="BL6" s="65">
         <f>C6-D6</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM6" s="62">
+      <c r="BM6" s="63">
         <f>BG6-$BL6</f>
         <v>158231565687.343</v>
       </c>
-      <c r="BN6" s="62">
+      <c r="BN6" s="63">
         <f>BH6-$BL6</f>
         <v>-1024625577169.8</v>
       </c>
-      <c r="BO6" s="62">
+      <c r="BO6" s="63">
         <f>BI6-$BL6</f>
         <v>-1344407357518.77</v>
       </c>
-      <c r="BP6" s="62">
+      <c r="BP6" s="63">
         <f>BJ6-$BL6</f>
         <v>-1651640120810.5</v>
       </c>
-      <c r="BQ6" s="62">
+      <c r="BQ6" s="63">
         <f>BK6-$BL6</f>
         <v>15374422830.2</v>
       </c>
-      <c r="BR6" s="62">
+      <c r="BR6" s="63">
         <f>BM6*(1-$E6/$D6)</f>
         <v>157569472773.821</v>
       </c>
-      <c r="BS6" s="62">
+      <c r="BS6" s="63">
         <f>BN6*(1-$E6/$D6)</f>
         <v>-1020338206753.47</v>
       </c>
-      <c r="BT6" s="62">
+      <c r="BT6" s="63">
         <f>BO6*(1-$E6/$D6)</f>
         <v>-1338781914956.58</v>
       </c>
-      <c r="BU6" s="62">
+      <c r="BU6" s="63">
         <f>BP6*(1-$E6/$D6)</f>
         <v>-1644729115317.21</v>
       </c>
-      <c r="BV6" s="62">
+      <c r="BV6" s="63">
         <f>BQ6*(1-$E6/$D6)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW6" s="62"/>
-      <c r="BX6" s="59"/>
-      <c r="BY6" s="59"/>
-      <c r="BZ6" s="59"/>
-      <c r="CA6" s="59"/>
-      <c r="CB6" s="59">
+      <c r="BW6" s="63"/>
+      <c r="BX6" s="60"/>
+      <c r="BY6" s="60"/>
+      <c r="BZ6" s="60"/>
+      <c r="CA6" s="60"/>
+      <c r="CB6" s="60">
         <v>4212576169</v>
       </c>
-      <c r="CC6" s="78">
+      <c r="CC6" s="79">
         <f>BR6/$CB6</f>
         <v>37.4045397525063</v>
       </c>
-      <c r="CD6" s="78">
+      <c r="CD6" s="79">
         <f>BS6/$CB6</f>
         <v>-242.212405383209</v>
       </c>
-      <c r="CE6" s="78">
+      <c r="CE6" s="79">
         <f>BT6/$CB6</f>
         <v>-317.805984093193</v>
       </c>
-      <c r="CF6" s="78">
+      <c r="CF6" s="79">
         <f>BU6/$CB6</f>
         <v>-390.433086390376</v>
       </c>
-      <c r="CG6" s="78">
+      <c r="CG6" s="79">
         <f>BV6/$CB6</f>
         <v>3.63437729650208</v>
       </c>
@@ -2908,7 +2928,7 @@
         <f>D7/C7</f>
         <v>0.704902595599497</v>
       </c>
-      <c r="AM7" s="58">
+      <c r="AM7" s="59">
         <v>4174523194.45556</v>
       </c>
       <c r="AN7" s="53">
@@ -2920,28 +2940,28 @@
       <c r="AP7" s="53">
         <v>0.15</v>
       </c>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="62">
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="63">
         <v>19813767427.18</v>
       </c>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="62">
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="65"/>
+      <c r="AU7" s="63">
         <v>5377818664.42</v>
       </c>
-      <c r="AV7" s="64">
+      <c r="AV7" s="65">
         <v>16216013.8</v>
       </c>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="62">
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="65"/>
+      <c r="AY7" s="63">
         <v>4496708</v>
       </c>
-      <c r="AZ7" s="62">
+      <c r="AZ7" s="63">
         <f>SUM(AR7:AY7)</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BA7" s="63">
+      <c r="BA7" s="64">
         <v>0</v>
       </c>
       <c r="BB7" s="45">
@@ -2960,96 +2980,96 @@
         <f>AM7*(1+AP7)/(1+AN7)+AM7*(1+AP7)^2/(1+AN7)^2+AM7*(1+AP7)^3/(1+AN7)^3+AM7*(1+AP7)^4/(1+AN7)^4+AM7*(1+AP7)^5/(1+AN7)^5+AM7*(1+AP7)^5*(1+AO7)/(1+AN7)^6/(AN7-AO7)</f>
         <v>220005017900.779</v>
       </c>
-      <c r="BF7" s="65"/>
-      <c r="BG7" s="62">
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="63">
         <f>$AZ7+$BA7+BB7</f>
         <v>84848344448.4794</v>
       </c>
-      <c r="BH7" s="62">
+      <c r="BH7" s="63">
         <f>$AZ7+$BA7+BC7</f>
         <v>169929102887.859</v>
       </c>
-      <c r="BI7" s="62">
+      <c r="BI7" s="63">
         <f>$AZ7+$BA7+BD7</f>
         <v>207613952710.683</v>
       </c>
-      <c r="BJ7" s="62">
+      <c r="BJ7" s="63">
         <f>$AZ7+$BA7+BE7</f>
         <v>245217316714.179</v>
       </c>
-      <c r="BK7" s="62">
+      <c r="BK7" s="63">
         <f>$AZ7+$BA7+BF7</f>
         <v>25212298813.4</v>
       </c>
-      <c r="BL7" s="64">
+      <c r="BL7" s="65">
         <f>C7-D7</f>
         <v>9837875983.2</v>
       </c>
-      <c r="BM7" s="62">
+      <c r="BM7" s="63">
         <f>BG7-$BL7</f>
         <v>75010468465.2794</v>
       </c>
-      <c r="BN7" s="62">
+      <c r="BN7" s="63">
         <f>BH7-$BL7</f>
         <v>160091226904.659</v>
       </c>
-      <c r="BO7" s="62">
+      <c r="BO7" s="63">
         <f>BI7-$BL7</f>
         <v>197776076727.483</v>
       </c>
-      <c r="BP7" s="62">
+      <c r="BP7" s="63">
         <f>BJ7-$BL7</f>
         <v>235379440730.979</v>
       </c>
-      <c r="BQ7" s="62">
+      <c r="BQ7" s="63">
         <f>BK7-$BL7</f>
         <v>15374422830.2</v>
       </c>
-      <c r="BR7" s="62">
+      <c r="BR7" s="63">
         <f>BM7*(1-$E7/$D7)</f>
         <v>74696599994.1242</v>
       </c>
-      <c r="BS7" s="62">
+      <c r="BS7" s="63">
         <f>BN7*(1-$E7/$D7)</f>
         <v>159421352556.958</v>
       </c>
-      <c r="BT7" s="62">
+      <c r="BT7" s="63">
         <f>BO7*(1-$E7/$D7)</f>
         <v>196948516573.499</v>
       </c>
-      <c r="BU7" s="62">
+      <c r="BU7" s="63">
         <f>BP7*(1-$E7/$D7)</f>
         <v>234394535734.181</v>
       </c>
-      <c r="BV7" s="62">
+      <c r="BV7" s="63">
         <f>BQ7*(1-$E7/$D7)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW7" s="62"/>
-      <c r="BX7" s="59"/>
-      <c r="BY7" s="59"/>
-      <c r="BZ7" s="59"/>
-      <c r="CA7" s="59"/>
-      <c r="CB7" s="59">
+      <c r="BW7" s="63"/>
+      <c r="BX7" s="60"/>
+      <c r="BY7" s="60"/>
+      <c r="BZ7" s="60"/>
+      <c r="CA7" s="60"/>
+      <c r="CB7" s="60">
         <v>4212576170</v>
       </c>
-      <c r="CC7" s="78">
+      <c r="CC7" s="79">
         <f>BR7/$CB7</f>
         <v>17.731809937605</v>
       </c>
-      <c r="CD7" s="78">
+      <c r="CD7" s="79">
         <f>BS7/$CB7</f>
         <v>37.8441471734761</v>
       </c>
-      <c r="CE7" s="78">
+      <c r="CE7" s="79">
         <f>BT7/$CB7</f>
         <v>46.7525116758896</v>
       </c>
-      <c r="CF7" s="78">
+      <c r="CF7" s="79">
         <f>BU7/$CB7</f>
         <v>55.6416136528117</v>
       </c>
-      <c r="CG7" s="78">
+      <c r="CG7" s="79">
         <f>BV7/$CB7</f>
         <v>3.63437729563934</v>
       </c>
@@ -3097,53 +3117,53 @@
       <c r="AJ8" s="53"/>
       <c r="AK8" s="53"/>
       <c r="AL8" s="53"/>
-      <c r="AM8" s="59"/>
+      <c r="AM8" s="60"/>
       <c r="AN8" s="53"/>
       <c r="AO8" s="53"/>
       <c r="AP8" s="53"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="65"/>
       <c r="BB8" s="45"/>
       <c r="BC8" s="46"/>
       <c r="BD8" s="46"/>
       <c r="BE8" s="46"/>
-      <c r="BF8" s="65"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="62"/>
-      <c r="BI8" s="62"/>
-      <c r="BJ8" s="62"/>
-      <c r="BK8" s="62"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="62"/>
-      <c r="BN8" s="62"/>
-      <c r="BO8" s="62"/>
-      <c r="BP8" s="62"/>
-      <c r="BQ8" s="62"/>
-      <c r="BR8" s="62"/>
-      <c r="BS8" s="62"/>
-      <c r="BT8" s="62"/>
-      <c r="BU8" s="62"/>
-      <c r="BV8" s="62"/>
-      <c r="BW8" s="62"/>
-      <c r="BX8" s="72"/>
-      <c r="BY8" s="72"/>
-      <c r="BZ8" s="72"/>
-      <c r="CA8" s="72"/>
-      <c r="CB8" s="72"/>
-      <c r="CC8" s="78"/>
-      <c r="CD8" s="78"/>
-      <c r="CE8" s="78"/>
-      <c r="CF8" s="78"/>
-      <c r="CG8" s="78"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="63"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="65"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="63"/>
+      <c r="BO8" s="63"/>
+      <c r="BP8" s="63"/>
+      <c r="BQ8" s="63"/>
+      <c r="BR8" s="63"/>
+      <c r="BS8" s="63"/>
+      <c r="BT8" s="63"/>
+      <c r="BU8" s="63"/>
+      <c r="BV8" s="63"/>
+      <c r="BW8" s="63"/>
+      <c r="BX8" s="73"/>
+      <c r="BY8" s="73"/>
+      <c r="BZ8" s="73"/>
+      <c r="CA8" s="73"/>
+      <c r="CB8" s="73"/>
+      <c r="CC8" s="79"/>
+      <c r="CD8" s="79"/>
+      <c r="CE8" s="79"/>
+      <c r="CF8" s="79"/>
+      <c r="CG8" s="79"/>
     </row>
     <row r="9" spans="1:85">
       <c r="A9" s="43">
@@ -3238,7 +3258,7 @@
         <f t="shared" ref="AL9:AL14" si="6">D9/C9</f>
         <v>0.550978945817644</v>
       </c>
-      <c r="AM9" s="58">
+      <c r="AM9" s="59">
         <v>1312404990.24778</v>
       </c>
       <c r="AN9" s="53">
@@ -3251,26 +3271,26 @@
       <c r="AP9" s="53">
         <v>0.15</v>
       </c>
-      <c r="AQ9" s="63"/>
-      <c r="AR9" s="62">
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="63">
         <v>2654052417.47</v>
       </c>
-      <c r="AS9" s="63"/>
-      <c r="AT9" s="63"/>
-      <c r="AU9" s="62">
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="63">
         <v>180312742.31</v>
       </c>
-      <c r="AV9" s="64">
+      <c r="AV9" s="65">
         <v>12159756.67</v>
       </c>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62">
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="63">
         <f>SUM(AR9:AY9)</f>
         <v>2846524916.45</v>
       </c>
-      <c r="BA9" s="64">
+      <c r="BA9" s="65">
         <f>298191205.49+65600611.64</f>
         <v>363791817.13</v>
       </c>
@@ -3288,98 +3308,98 @@
       </c>
       <c r="BE9" s="46">
         <f>AM9*(1+AP9)/(1+AN9)+AM9*(1+AP9)^2/(1+AN9)^2+AM9*(1+AP9)^3/(1+AN9)^3+AM9*(1+AP9)^4/(1+AN9)^4+AM9*(1+AP9)^5/(1+AN9)^5+AM9*(1+AP9)^5*(1+AO9)/(1+AN9)^6/(AN9-AO9)</f>
-        <v>41763637764.36</v>
-      </c>
-      <c r="BF9" s="65"/>
-      <c r="BG9" s="62">
+        <v>41763637764.3599</v>
+      </c>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="63">
         <f>$AZ9+$BA9+BB9</f>
         <v>18034357617.4038</v>
       </c>
-      <c r="BH9" s="62">
+      <c r="BH9" s="63">
         <f>$AZ9+$BA9+BC9</f>
         <v>31333936061.1753</v>
       </c>
-      <c r="BI9" s="62">
+      <c r="BI9" s="63">
         <f>$AZ9+$BA9+BD9</f>
         <v>38074054218.5191</v>
       </c>
-      <c r="BJ9" s="62">
+      <c r="BJ9" s="63">
         <f>$AZ9+$BA9+BE9</f>
-        <v>44973954497.94</v>
-      </c>
-      <c r="BK9" s="62">
+        <v>44973954497.9399</v>
+      </c>
+      <c r="BK9" s="63">
         <f>$AZ9+$BA9+BF9</f>
         <v>3210316733.58</v>
       </c>
-      <c r="BL9" s="64">
+      <c r="BL9" s="65">
         <f>C9-D9</f>
         <v>6241148575.24</v>
       </c>
-      <c r="BM9" s="62">
+      <c r="BM9" s="63">
         <f>BG9-$BL9</f>
         <v>11793209042.1638</v>
       </c>
-      <c r="BN9" s="62">
+      <c r="BN9" s="63">
         <f>BH9-$BL9</f>
         <v>25092787485.9353</v>
       </c>
-      <c r="BO9" s="62">
+      <c r="BO9" s="63">
         <f>BI9-$BL9</f>
         <v>31832905643.2791</v>
       </c>
-      <c r="BP9" s="62">
+      <c r="BP9" s="63">
         <f>BJ9-$BL9</f>
         <v>38732805922.7</v>
       </c>
-      <c r="BQ9" s="62">
+      <c r="BQ9" s="63">
         <f>BK9-$BL9</f>
         <v>-3030831841.66</v>
       </c>
-      <c r="BR9" s="62">
+      <c r="BR9" s="63">
         <f>BM9*(1-$E9/$D9)</f>
         <v>11738282902.1087</v>
       </c>
-      <c r="BS9" s="62">
+      <c r="BS9" s="63">
         <f>BN9*(1-$E9/$D9)</f>
         <v>24975919383.7166</v>
       </c>
-      <c r="BT9" s="62">
+      <c r="BT9" s="63">
         <f>BO9*(1-$E9/$D9)</f>
         <v>31684645858.5612</v>
       </c>
-      <c r="BU9" s="62">
+      <c r="BU9" s="63">
         <f>BP9*(1-$E9/$D9)</f>
         <v>38552410280.1542</v>
       </c>
-      <c r="BV9" s="62">
+      <c r="BV9" s="63">
         <f>BQ9*(1-$E9/$D9)</f>
         <v>-3016715930.23815</v>
       </c>
-      <c r="BW9" s="62"/>
-      <c r="BX9" s="72"/>
-      <c r="BY9" s="72"/>
-      <c r="BZ9" s="72"/>
-      <c r="CA9" s="72"/>
-      <c r="CB9" s="72">
+      <c r="BW9" s="63"/>
+      <c r="BX9" s="73"/>
+      <c r="BY9" s="73"/>
+      <c r="BZ9" s="73"/>
+      <c r="CA9" s="73"/>
+      <c r="CB9" s="73">
         <v>808678476</v>
       </c>
-      <c r="CC9" s="78">
+      <c r="CC9" s="79">
         <f>BR9/$CB9</f>
-        <v>14.5153893054879</v>
-      </c>
-      <c r="CD9" s="78">
+        <v>14.515389305488</v>
+      </c>
+      <c r="CD9" s="79">
         <f>BS9/$CB9</f>
         <v>30.8848573629115</v>
       </c>
-      <c r="CE9" s="78">
+      <c r="CE9" s="79">
         <f>BT9/$CB9</f>
         <v>39.1807706015428</v>
       </c>
-      <c r="CF9" s="78">
+      <c r="CF9" s="79">
         <f>BU9/$CB9</f>
         <v>47.673347843815</v>
       </c>
-      <c r="CG9" s="78">
+      <c r="CG9" s="79">
         <f>BV9/$CB9</f>
         <v>-3.7304268875312</v>
       </c>
@@ -3450,7 +3470,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="59"/>
+      <c r="AM10" s="60"/>
       <c r="AN10" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -3461,17 +3481,17 @@
       <c r="AP10" s="53">
         <v>0.16</v>
       </c>
-      <c r="AQ10" s="63"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="63"/>
-      <c r="AT10" s="63"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="63"/>
-      <c r="AW10" s="63"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="63"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="63"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="64"/>
       <c r="BB10" s="45" t="e">
         <f>AM10/AN10</f>
         <v>#DIV/0!</v>
@@ -3488,94 +3508,94 @@
         <f>AM10*(1+AP10)/(1+AN10)+AM10*(1+AP10)^2/(1+AN10)^2+AM10*(1+AP10)^3/(1+AN10)^3+AM10*(1+AP10)^4/(1+AN10)^4+AM10*(1+AP10)^5/(1+AN10)^5+AM10*(1+AP10)^5*(1+AO10)/(1+AN10)^6/(AN10-AO10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="62" t="e">
+      <c r="BF10" s="67"/>
+      <c r="BG10" s="63" t="e">
         <f>$AZ10+$BA10+BB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BH10" s="62" t="e">
+      <c r="BH10" s="63" t="e">
         <f>$AZ10+$BA10+BC10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BI10" s="62" t="e">
+      <c r="BI10" s="63" t="e">
         <f>$AZ10+$BA10+BD10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BJ10" s="62" t="e">
+      <c r="BJ10" s="63" t="e">
         <f>$AZ10+$BA10+BE10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BK10" s="62">
+      <c r="BK10" s="63">
         <f>$AZ10+$BA10+BF10</f>
         <v>0</v>
       </c>
-      <c r="BL10" s="64">
+      <c r="BL10" s="65">
         <f>C10-D10</f>
         <v>0</v>
       </c>
-      <c r="BM10" s="62" t="e">
+      <c r="BM10" s="63" t="e">
         <f>BG10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BN10" s="62" t="e">
+      <c r="BN10" s="63" t="e">
         <f>BH10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BO10" s="62" t="e">
+      <c r="BO10" s="63" t="e">
         <f>BI10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP10" s="62" t="e">
+      <c r="BP10" s="63" t="e">
         <f>BJ10-$BL10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ10" s="62">
+      <c r="BQ10" s="63">
         <f>BK10-$BL10</f>
         <v>0</v>
       </c>
-      <c r="BR10" s="62" t="e">
+      <c r="BR10" s="63" t="e">
         <f>BM10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BS10" s="62" t="e">
+      <c r="BS10" s="63" t="e">
         <f>BN10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BT10" s="62" t="e">
+      <c r="BT10" s="63" t="e">
         <f>BO10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BU10" s="62" t="e">
+      <c r="BU10" s="63" t="e">
         <f>BP10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BV10" s="62" t="e">
+      <c r="BV10" s="63" t="e">
         <f>BQ10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW10" s="62"/>
-      <c r="BX10" s="59"/>
-      <c r="BY10" s="59"/>
-      <c r="BZ10" s="59"/>
-      <c r="CA10" s="59"/>
-      <c r="CB10" s="59"/>
-      <c r="CC10" s="78" t="e">
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="60"/>
+      <c r="BY10" s="60"/>
+      <c r="BZ10" s="60"/>
+      <c r="CA10" s="60"/>
+      <c r="CB10" s="60"/>
+      <c r="CC10" s="79" t="e">
         <f>BR10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CD10" s="78" t="e">
+      <c r="CD10" s="79" t="e">
         <f>BS10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE10" s="78" t="e">
+      <c r="CE10" s="79" t="e">
         <f>BT10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CF10" s="78" t="e">
+      <c r="CF10" s="79" t="e">
         <f>BU10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CG10" s="78" t="e">
+      <c r="CG10" s="79" t="e">
         <f>BV10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
@@ -3669,7 +3689,7 @@
         <f t="shared" si="6"/>
         <v>0.803407622630166</v>
       </c>
-      <c r="AM11" s="60">
+      <c r="AM11" s="61">
         <v>278344963.561111</v>
       </c>
       <c r="AN11" s="53">
@@ -3682,28 +3702,28 @@
       <c r="AP11" s="53">
         <v>0.19</v>
       </c>
-      <c r="AQ11" s="63"/>
-      <c r="AR11" s="62">
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="63">
         <v>1829782947.1</v>
       </c>
-      <c r="AS11" s="63"/>
-      <c r="AT11" s="63"/>
-      <c r="AU11" s="62">
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="63">
         <v>424541.21</v>
       </c>
-      <c r="AV11" s="64">
+      <c r="AV11" s="65">
         <v>3113131.56</v>
       </c>
-      <c r="AW11" s="63"/>
-      <c r="AX11" s="63"/>
-      <c r="AY11" s="62">
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="63">
         <v>8194517.48</v>
       </c>
-      <c r="AZ11" s="62">
+      <c r="AZ11" s="63">
         <f>SUM(AR11:AY11)</f>
         <v>1841515137.35</v>
       </c>
-      <c r="BA11" s="64">
+      <c r="BA11" s="65">
         <v>272631920.44</v>
       </c>
       <c r="BB11" s="45">
@@ -3712,7 +3732,7 @@
       </c>
       <c r="BC11" s="46">
         <f>AM11*(1+AO11)/(AN11-AO11)</f>
-        <v>8088088443.40708</v>
+        <v>8088088443.40707</v>
       </c>
       <c r="BD11" s="46">
         <f>AM11*(1+AP11)/(1+AN11)+AM11*(1+AP11)^2/(1+AN11)^2+AM11*(1+AP11)^3/(1+AN11)^3+AM11*(1+AP11)^3*(1+AO11)/(1+AN11)^4/(AN11-AO11)</f>
@@ -3722,96 +3742,96 @@
         <f>AM11*(1+AP11)/(1+AN11)+AM11*(1+AP11)^2/(1+AN11)^2+AM11*(1+AP11)^3/(1+AN11)^3+AM11*(1+AP11)^4/(1+AN11)^4+AM11*(1+AP11)^5/(1+AN11)^5+AM11*(1+AP11)^5*(1+AO11)/(1+AN11)^6/(AN11-AO11)</f>
         <v>14354204042.2797</v>
       </c>
-      <c r="BF11" s="65"/>
-      <c r="BG11" s="62">
+      <c r="BF11" s="67"/>
+      <c r="BG11" s="63">
         <f>$AZ11+$BA11+BB11</f>
         <v>5786692305.41368</v>
       </c>
-      <c r="BH11" s="62">
+      <c r="BH11" s="63">
         <f>$AZ11+$BA11+BC11</f>
         <v>10202235501.1971</v>
       </c>
-      <c r="BI11" s="62">
+      <c r="BI11" s="63">
         <f>$AZ11+$BA11+BD11</f>
         <v>13315326922.0088</v>
       </c>
-      <c r="BJ11" s="62">
+      <c r="BJ11" s="63">
         <f>$AZ11+$BA11+BE11</f>
         <v>16468351100.0697</v>
       </c>
-      <c r="BK11" s="62">
+      <c r="BK11" s="63">
         <f>$AZ11+$BA11+BF11</f>
         <v>2114147057.79</v>
       </c>
-      <c r="BL11" s="64">
+      <c r="BL11" s="65">
         <f>C11-D11</f>
         <v>1252157377.5</v>
       </c>
-      <c r="BM11" s="62">
+      <c r="BM11" s="63">
         <f>BG11-$BL11</f>
         <v>4534534927.91368</v>
       </c>
-      <c r="BN11" s="62">
+      <c r="BN11" s="63">
         <f>BH11-$BL11</f>
-        <v>8950078123.69708</v>
-      </c>
-      <c r="BO11" s="62">
+        <v>8950078123.69707</v>
+      </c>
+      <c r="BO11" s="63">
         <f>BI11-$BL11</f>
         <v>12063169544.5088</v>
       </c>
-      <c r="BP11" s="62">
+      <c r="BP11" s="63">
         <f>BJ11-$BL11</f>
         <v>15216193722.5697</v>
       </c>
-      <c r="BQ11" s="62">
+      <c r="BQ11" s="63">
         <f>BK11-$BL11</f>
         <v>861989680.29</v>
       </c>
-      <c r="BR11" s="62">
+      <c r="BR11" s="63">
         <f>BM11*(1-$E11/$D11)</f>
-        <v>4462787333.95287</v>
-      </c>
-      <c r="BS11" s="62">
+        <v>4462787333.95286</v>
+      </c>
+      <c r="BS11" s="63">
         <f>BN11*(1-$E11/$D11)</f>
-        <v>8808465680.22825</v>
-      </c>
-      <c r="BT11" s="62">
+        <v>8808465680.22824</v>
+      </c>
+      <c r="BT11" s="63">
         <f>BO11*(1-$E11/$D11)</f>
         <v>11872300270.3453</v>
       </c>
-      <c r="BU11" s="62">
+      <c r="BU11" s="63">
         <f>BP11*(1-$E11/$D11)</f>
         <v>14975435782.408</v>
       </c>
-      <c r="BV11" s="62">
+      <c r="BV11" s="63">
         <f>BQ11*(1-$E11/$D11)</f>
         <v>848350864.719488</v>
       </c>
-      <c r="BW11" s="62"/>
-      <c r="BX11" s="59"/>
-      <c r="BY11" s="59"/>
-      <c r="BZ11" s="59"/>
-      <c r="CA11" s="59"/>
-      <c r="CB11" s="59">
+      <c r="BW11" s="63"/>
+      <c r="BX11" s="60"/>
+      <c r="BY11" s="60"/>
+      <c r="BZ11" s="60"/>
+      <c r="CA11" s="60"/>
+      <c r="CB11" s="60">
         <v>405950150</v>
       </c>
-      <c r="CC11" s="78">
+      <c r="CC11" s="79">
         <f>BR11/$CB11</f>
         <v>10.9934368393579</v>
       </c>
-      <c r="CD11" s="78">
+      <c r="CD11" s="79">
         <f>BS11/$CB11</f>
         <v>21.6983924755989</v>
       </c>
-      <c r="CE11" s="78">
+      <c r="CE11" s="79">
         <f>BT11/$CB11</f>
-        <v>29.2457097758071</v>
-      </c>
-      <c r="CF11" s="78">
+        <v>29.245709775807</v>
+      </c>
+      <c r="CF11" s="79">
         <f>BU11/$CB11</f>
         <v>36.8898392632888</v>
       </c>
-      <c r="CG11" s="78">
+      <c r="CG11" s="79">
         <f>BV11/$CB11</f>
         <v>2.08979074085694</v>
       </c>
@@ -3925,7 +3945,7 @@
         <f t="shared" si="6"/>
         <v>0.703052761103367</v>
       </c>
-      <c r="AM12" s="59">
+      <c r="AM12" s="60">
         <v>1402046451.92778</v>
       </c>
       <c r="AN12" s="53">
@@ -3938,28 +3958,28 @@
       <c r="AP12" s="53">
         <v>0.23</v>
       </c>
-      <c r="AQ12" s="63"/>
-      <c r="AR12" s="62">
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="63">
         <v>8238772782.53</v>
       </c>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="64">
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="65">
         <v>229142186.76</v>
       </c>
-      <c r="AU12" s="62">
+      <c r="AU12" s="63">
         <v>527288380.38</v>
       </c>
-      <c r="AV12" s="64">
+      <c r="AV12" s="65">
         <v>339579823.47</v>
       </c>
-      <c r="AW12" s="63"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="62">
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="63"/>
+      <c r="AZ12" s="63">
         <f>SUM(AR12:AY12)+8714098195.97</f>
         <v>18048881369.11</v>
       </c>
-      <c r="BA12" s="64">
+      <c r="BA12" s="65">
         <v>678304556.75</v>
       </c>
       <c r="BB12" s="45">
@@ -3968,106 +3988,106 @@
       </c>
       <c r="BC12" s="46">
         <f>AM12*(1+AO12)/(AN12-AO12)</f>
-        <v>58774691381.5619</v>
+        <v>58774691381.562</v>
       </c>
       <c r="BD12" s="46">
         <f>AM12*(1+AP12)/(1+AN12)+AM12*(1+AP12)^2/(1+AN12)^2+AM12*(1+AP12)^3/(1+AN12)^3+AM12*(1+AP12)^3*(1+AO12)/(1+AN12)^4/(AN12-AO12)</f>
-        <v>90729782373.1699</v>
+        <v>90729782373.1701</v>
       </c>
       <c r="BE12" s="46">
         <f>AM12*(1+AP12)/(1+AN12)+AM12*(1+AP12)^2/(1+AN12)^2+AM12*(1+AP12)^3/(1+AN12)^3+AM12*(1+AP12)^4/(1+AN12)^4+AM12*(1+AP12)^5/(1+AN12)^5+AM12*(1+AP12)^5*(1+AO12)/(1+AN12)^6/(AN12-AO12)</f>
         <v>124554873714.034</v>
       </c>
-      <c r="BF12" s="65"/>
-      <c r="BG12" s="62">
+      <c r="BF12" s="67"/>
+      <c r="BG12" s="63">
         <f>$AZ12+$BA12+BB12</f>
         <v>40360774471.3547</v>
       </c>
-      <c r="BH12" s="62">
+      <c r="BH12" s="63">
         <f>$AZ12+$BA12+BC12</f>
-        <v>77501877307.4219</v>
-      </c>
-      <c r="BI12" s="62">
+        <v>77501877307.422</v>
+      </c>
+      <c r="BI12" s="63">
         <f>$AZ12+$BA12+BD12</f>
         <v>109456968299.03</v>
       </c>
-      <c r="BJ12" s="62">
+      <c r="BJ12" s="63">
         <f>$AZ12+$BA12+BE12</f>
         <v>143282059639.894</v>
       </c>
-      <c r="BK12" s="62">
+      <c r="BK12" s="63">
         <f>$AZ12+$BA12+BF12</f>
         <v>18727185925.86</v>
       </c>
-      <c r="BL12" s="64">
+      <c r="BL12" s="65">
         <f>C12-D12</f>
         <v>16369925768.22</v>
       </c>
-      <c r="BM12" s="62">
+      <c r="BM12" s="63">
         <f>BG12-$BL12</f>
         <v>23990848703.1347</v>
       </c>
-      <c r="BN12" s="62">
+      <c r="BN12" s="63">
         <f>BH12-$BL12</f>
-        <v>61131951539.2019</v>
-      </c>
-      <c r="BO12" s="62">
+        <v>61131951539.202</v>
+      </c>
+      <c r="BO12" s="63">
         <f>BI12-$BL12</f>
-        <v>93087042530.8099</v>
-      </c>
-      <c r="BP12" s="62">
+        <v>93087042530.8101</v>
+      </c>
+      <c r="BP12" s="63">
         <f>BJ12-$BL12</f>
         <v>126912133871.674</v>
       </c>
-      <c r="BQ12" s="62">
+      <c r="BQ12" s="63">
         <f>BK12-$BL12</f>
         <v>2357260157.64</v>
       </c>
-      <c r="BR12" s="62">
+      <c r="BR12" s="63">
         <f>BM12*(1-$E12/$D12)</f>
-        <v>23826223947.0311</v>
-      </c>
-      <c r="BS12" s="62">
+        <v>23826223947.0312</v>
+      </c>
+      <c r="BS12" s="63">
         <f>BN12*(1-$E12/$D12)</f>
-        <v>60712465228.5338</v>
-      </c>
-      <c r="BT12" s="62">
+        <v>60712465228.5339</v>
+      </c>
+      <c r="BT12" s="63">
         <f>BO12*(1-$E12/$D12)</f>
-        <v>92448280982.0769</v>
-      </c>
-      <c r="BU12" s="62">
+        <v>92448280982.077</v>
+      </c>
+      <c r="BU12" s="63">
         <f>BP12*(1-$E12/$D12)</f>
         <v>126041265177.376</v>
       </c>
-      <c r="BV12" s="62">
+      <c r="BV12" s="63">
         <f>BQ12*(1-$E12/$D12)</f>
         <v>2341084682.42751</v>
       </c>
-      <c r="BW12" s="62"/>
-      <c r="BX12" s="59"/>
-      <c r="BY12" s="59"/>
-      <c r="BZ12" s="59"/>
-      <c r="CA12" s="59"/>
-      <c r="CB12" s="59">
+      <c r="BW12" s="63"/>
+      <c r="BX12" s="60"/>
+      <c r="BY12" s="60"/>
+      <c r="BZ12" s="60"/>
+      <c r="CA12" s="60"/>
+      <c r="CB12" s="60">
         <v>2955826899</v>
       </c>
-      <c r="CC12" s="78">
+      <c r="CC12" s="79">
         <f>BR12/$CB12</f>
-        <v>8.06076430087699</v>
-      </c>
-      <c r="CD12" s="78">
+        <v>8.060764300877</v>
+      </c>
+      <c r="CD12" s="79">
         <f>BS12/$CB12</f>
-        <v>20.5399258153695</v>
-      </c>
-      <c r="CE12" s="78">
+        <v>20.5399258153696</v>
+      </c>
+      <c r="CE12" s="79">
         <f>BT12/$CB12</f>
-        <v>31.2766221233569</v>
-      </c>
-      <c r="CF12" s="78">
+        <v>31.276622123357</v>
+      </c>
+      <c r="CF12" s="79">
         <f>BU12/$CB12</f>
-        <v>42.6416260099728</v>
-      </c>
-      <c r="CG12" s="78">
+        <v>42.6416260099729</v>
+      </c>
+      <c r="CG12" s="79">
         <f>BV12/$CB12</f>
         <v>0.792023607072368</v>
       </c>
@@ -4138,7 +4158,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM13" s="59"/>
+      <c r="AM13" s="60"/>
       <c r="AN13" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -4149,49 +4169,49 @@
       <c r="AP13" s="53">
         <v>0.74</v>
       </c>
-      <c r="AQ13" s="63"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="63"/>
-      <c r="AT13" s="63"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="63"/>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="62"/>
-      <c r="BA13" s="63"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="63"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="63"/>
+      <c r="AZ13" s="63"/>
+      <c r="BA13" s="64"/>
       <c r="BB13" s="45"/>
       <c r="BC13" s="46"/>
       <c r="BD13" s="46"/>
       <c r="BE13" s="46"/>
-      <c r="BF13" s="65"/>
-      <c r="BG13" s="62"/>
-      <c r="BH13" s="62"/>
-      <c r="BI13" s="62"/>
-      <c r="BJ13" s="62"/>
-      <c r="BK13" s="62"/>
-      <c r="BL13" s="63"/>
-      <c r="BM13" s="62"/>
-      <c r="BN13" s="62"/>
-      <c r="BO13" s="62"/>
-      <c r="BP13" s="62"/>
-      <c r="BQ13" s="62"/>
-      <c r="BR13" s="62"/>
-      <c r="BS13" s="62"/>
-      <c r="BT13" s="62"/>
-      <c r="BU13" s="62"/>
-      <c r="BV13" s="62"/>
-      <c r="BW13" s="62"/>
-      <c r="BX13" s="59"/>
-      <c r="BY13" s="59"/>
-      <c r="BZ13" s="59"/>
-      <c r="CA13" s="59"/>
-      <c r="CB13" s="59"/>
-      <c r="CC13" s="78"/>
-      <c r="CD13" s="78"/>
-      <c r="CE13" s="78"/>
-      <c r="CF13" s="78"/>
-      <c r="CG13" s="78"/>
+      <c r="BF13" s="67"/>
+      <c r="BG13" s="63"/>
+      <c r="BH13" s="63"/>
+      <c r="BI13" s="63"/>
+      <c r="BJ13" s="63"/>
+      <c r="BK13" s="63"/>
+      <c r="BL13" s="64"/>
+      <c r="BM13" s="63"/>
+      <c r="BN13" s="63"/>
+      <c r="BO13" s="63"/>
+      <c r="BP13" s="63"/>
+      <c r="BQ13" s="63"/>
+      <c r="BR13" s="63"/>
+      <c r="BS13" s="63"/>
+      <c r="BT13" s="63"/>
+      <c r="BU13" s="63"/>
+      <c r="BV13" s="63"/>
+      <c r="BW13" s="63"/>
+      <c r="BX13" s="60"/>
+      <c r="BY13" s="60"/>
+      <c r="BZ13" s="60"/>
+      <c r="CA13" s="60"/>
+      <c r="CB13" s="60"/>
+      <c r="CC13" s="79"/>
+      <c r="CD13" s="79"/>
+      <c r="CE13" s="79"/>
+      <c r="CF13" s="79"/>
+      <c r="CG13" s="79"/>
     </row>
     <row r="14" spans="1:85">
       <c r="A14" s="43">
@@ -4259,7 +4279,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="59"/>
+      <c r="AM14" s="60"/>
       <c r="AN14" s="53" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -4270,49 +4290,52 @@
       <c r="AP14" s="53">
         <v>0.15</v>
       </c>
-      <c r="AQ14" s="63"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="63"/>
-      <c r="AT14" s="63"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="63"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="63"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="64"/>
       <c r="BB14" s="45"/>
       <c r="BC14" s="46"/>
       <c r="BD14" s="46"/>
       <c r="BE14" s="46"/>
-      <c r="BF14" s="65"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="63"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
-      <c r="BP14" s="62"/>
-      <c r="BQ14" s="62"/>
-      <c r="BR14" s="62"/>
-      <c r="BS14" s="62"/>
-      <c r="BT14" s="62"/>
-      <c r="BU14" s="62"/>
-      <c r="BV14" s="62"/>
-      <c r="BW14" s="62"/>
-      <c r="BX14" s="59"/>
-      <c r="BY14" s="59"/>
-      <c r="BZ14" s="59"/>
-      <c r="CA14" s="59"/>
-      <c r="CB14" s="59"/>
-      <c r="CC14" s="78"/>
-      <c r="CD14" s="78"/>
-      <c r="CE14" s="78"/>
-      <c r="CF14" s="78"/>
-      <c r="CG14" s="78"/>
+      <c r="BF14" s="67"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="63"/>
+      <c r="BI14" s="63"/>
+      <c r="BJ14" s="63"/>
+      <c r="BK14" s="63"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="63"/>
+      <c r="BN14" s="63"/>
+      <c r="BO14" s="63"/>
+      <c r="BP14" s="63"/>
+      <c r="BQ14" s="63"/>
+      <c r="BR14" s="63"/>
+      <c r="BS14" s="63"/>
+      <c r="BT14" s="63"/>
+      <c r="BU14" s="63"/>
+      <c r="BV14" s="63"/>
+      <c r="BW14" s="63"/>
+      <c r="BX14" s="60"/>
+      <c r="BY14" s="60"/>
+      <c r="BZ14" s="60"/>
+      <c r="CA14" s="60"/>
+      <c r="CB14" s="60"/>
+      <c r="CC14" s="79"/>
+      <c r="CD14" s="79"/>
+      <c r="CE14" s="79"/>
+      <c r="CF14" s="79"/>
+      <c r="CG14" s="79"/>
+    </row>
+    <row r="15" spans="49:49">
+      <c r="AW15" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -4524,97 +4547,97 @@
         <v>88</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AP1" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AQ1" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AR1" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AU1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AX1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AY1" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AZ1" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BA1" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB1" s="32" t="s">
         <v>4</v>
       </c>
       <c r="BC1" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BD1" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE1" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF1" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BI1" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BJ1" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BK1" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BL1" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -4622,7 +4645,7 @@
         <v>2000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -4634,7 +4657,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4643,7 +4666,7 @@
         <v>2013</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -4652,7 +4675,7 @@
         <v>2014</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -4661,7 +4684,7 @@
         <v>2015</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2"/>
       <c r="K6" s="1">
@@ -4679,7 +4702,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2">
         <v>395710676.7</v>
@@ -4696,7 +4719,7 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" ref="H7:H12" si="1">D7*E7</f>
-        <v>395710676.700001</v>
+        <v>395710676.7</v>
       </c>
       <c r="I7" s="1">
         <v>7.43</v>
@@ -4741,7 +4764,7 @@
         <v>2017</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2">
         <v>588460089.51</v>
@@ -4755,7 +4778,7 @@
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>588460089.509998</v>
+        <v>588460089.51</v>
       </c>
       <c r="I8" s="1">
         <v>9.83</v>
@@ -4833,7 +4856,7 @@
       </c>
       <c r="BJ8" s="12">
         <f>BE8/AW8</f>
-        <v>-72.6181869025684</v>
+        <v>-72.6181869025683</v>
       </c>
       <c r="BL8" s="12">
         <f>BG8/AW8</f>
@@ -4845,7 +4868,7 @@
         <v>2018</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2">
         <v>929680667.61</v>
@@ -4862,7 +4885,7 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" si="1"/>
-        <v>929680667.610001</v>
+        <v>929680667.61</v>
       </c>
       <c r="I9" s="1">
         <v>9.13</v>
@@ -4966,7 +4989,7 @@
         <v>2019</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2">
         <v>1085007826.8</v>
@@ -5006,7 +5029,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2">
         <v>1267407527.03</v>
@@ -5056,7 +5079,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
         <v>1252157377.5</v>
@@ -5164,7 +5187,7 @@
       </c>
       <c r="AQ12" s="10">
         <f>AK12*(1+AO12)/(AG12-AO12)</f>
-        <v>39732817257.9273</v>
+        <v>39732817257.9272</v>
       </c>
       <c r="AR12" s="10">
         <f>(AK12*(1+AN12))/(1+AG12)+(AK12*(1+AN12)^2)/(1+AG12)^2+(AK12*(1+AN12)^3)/(1+AG12)^3+AK12*(1+AN12)^3*(1+AO12)/(AG12-AO12)*(1+AG12)^3</f>
@@ -5172,11 +5195,11 @@
       </c>
       <c r="AS12" s="10">
         <f>(AK12*(1+AN12))/(1+AG12)+(AK12*(1+AN12)^2)/(1+AG12)^2+(AK12*(1+AN12)^3)/(1+AG12)^3+(AK12*(1+AN12)^4)/(1+AG12)^4+(AK12*(1+AN12)^5)/(1+AG12)^5+AK12*(1+AN12)^5*(1+AO12)/(AG12-AO12)*(1+AG12)^5</f>
-        <v>112448957192.963</v>
+        <v>112448957192.962</v>
       </c>
       <c r="AT12" s="10">
         <f>(AK12*(1+AN12))/(1+AG12)+(AK12*(1+AN12)^2)/(1+AG12)^2+(AK12*(1+AN12)^3)/(1+AG12)^3+AK12*(1+AO12)/(AG12-AO12)*(1+AG12)^3</f>
-        <v>49757632620.2647</v>
+        <v>49757632620.2646</v>
       </c>
       <c r="AU12" s="10">
         <f>1829782947.1+424541.21+220933280.21+683863298.33+3113131.56</f>
@@ -5194,7 +5217,7 @@
       </c>
       <c r="AY12" s="10">
         <f>AQ12+AU12+AV12</f>
-        <v>42743566376.7773</v>
+        <v>42743566376.7772</v>
       </c>
       <c r="AZ12" s="10">
         <f>AR12+AU12+AV12</f>
@@ -5202,7 +5225,7 @@
       </c>
       <c r="BA12" s="10">
         <f>AS12+AU12+AV12</f>
-        <v>115459706311.813</v>
+        <v>115459706311.812</v>
       </c>
       <c r="BD12" s="10">
         <f>AX12*(1-BC12)</f>
@@ -5218,7 +5241,7 @@
       </c>
       <c r="BG12" s="10">
         <f>BA12*(1-BC12)</f>
-        <v>115459706311.813</v>
+        <v>115459706311.812</v>
       </c>
       <c r="BI12" s="12">
         <f>BD12/AW12</f>
@@ -5226,7 +5249,7 @@
       </c>
       <c r="BJ12" s="35">
         <f>BE12/AW12</f>
-        <v>84.5929162620123</v>
+        <v>84.5929162620122</v>
       </c>
       <c r="BK12" s="35">
         <f>BF12/AW12</f>
@@ -5234,12 +5257,12 @@
       </c>
       <c r="BL12" s="12">
         <f>BG12/AW12</f>
-        <v>284.41843490343</v>
+        <v>284.418434903429</v>
       </c>
     </row>
     <row r="13" s="9" customFormat="1" spans="1:64">
       <c r="A13" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -5316,7 +5339,7 @@
         <v>2010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14" s="4">
@@ -5340,7 +5363,7 @@
         <v>2011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15" s="4">
@@ -5367,7 +5390,7 @@
         <v>2012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2"/>
       <c r="E16" s="4">
@@ -5394,7 +5417,7 @@
         <v>2013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17" s="4">
@@ -5421,7 +5444,7 @@
         <v>2014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2"/>
       <c r="E18" s="4">
@@ -5448,7 +5471,7 @@
         <v>2015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="E19" s="4">
@@ -5481,7 +5504,7 @@
         <v>2016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2"/>
       <c r="E20" s="4">
@@ -5514,7 +5537,7 @@
         <v>2017</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21" s="4">
@@ -5547,7 +5570,7 @@
         <v>2018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2"/>
       <c r="E22" s="4">
@@ -5580,7 +5603,7 @@
         <v>2019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" s="4">
@@ -5613,7 +5636,7 @@
         <v>2020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24" s="4">
@@ -5646,7 +5669,7 @@
         <v>2021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25" s="4">
@@ -5676,7 +5699,7 @@
     </row>
     <row r="26" s="9" customFormat="1" spans="1:64">
       <c r="A26" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -6005,7 +6028,7 @@
     </row>
     <row r="35" s="9" customFormat="1" spans="1:64">
       <c r="A35" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -6169,7 +6192,7 @@
         <v>2016</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="2"/>
       <c r="F41" s="10">
@@ -6197,7 +6220,7 @@
         <v>2017</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42" s="2">
         <v>13603365.31</v>
@@ -6316,7 +6339,7 @@
       </c>
       <c r="BL42" s="12">
         <f>BG42/AW42</f>
-        <v>52.3213715989851</v>
+        <v>52.321371598985</v>
       </c>
     </row>
     <row r="43" spans="1:64">
@@ -6324,7 +6347,7 @@
         <v>2018</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2">
         <v>24552241.13</v>
@@ -6449,7 +6472,7 @@
         <v>2019</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2">
         <v>22800207.39</v>
@@ -6502,12 +6525,12 @@
       <c r="BJ44" s="35"/>
       <c r="BK44" s="35"/>
     </row>
-    <row r="45" spans="1:64">
+    <row r="45" ht="17.6" spans="1:64">
       <c r="A45" s="1">
         <v>2020</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" s="2">
         <v>311766694.47</v>
@@ -6630,7 +6653,7 @@
         <v>2021</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2">
         <v>567016220.34</v>
@@ -6749,7 +6772,7 @@
     </row>
     <row r="47" spans="1:64">
       <c r="A47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG47" s="11">
         <v>0.12</v>
@@ -6883,7 +6906,7 @@
         <v>2011</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E51" s="4">
         <v>0.5286</v>
@@ -6900,7 +6923,7 @@
         <v>2012</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E52" s="4">
         <v>0.3825</v>
@@ -6917,7 +6940,7 @@
         <v>2013</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E53" s="4">
         <v>0.3616</v>
@@ -6934,7 +6957,7 @@
         <v>2014</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E54" s="4">
         <v>0.4941</v>
@@ -6951,7 +6974,7 @@
         <v>2015</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E55" s="4">
         <v>0.4462</v>
@@ -6974,7 +6997,7 @@
         <v>2016</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E56" s="4">
         <v>0.4735</v>
@@ -6997,7 +7020,7 @@
         <v>2017</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E57" s="4">
         <v>0.5668</v>
@@ -7020,7 +7043,7 @@
         <v>2018</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2">
         <v>22834483901.03</v>
@@ -7056,7 +7079,7 @@
         <v>2019</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2">
         <v>31009156432.98</v>
@@ -7092,7 +7115,7 @@
         <v>2020</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2">
         <v>52036767690.64</v>
@@ -7128,7 +7151,7 @@
         <v>2021</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2">
         <v>50148006257.57</v>
@@ -7266,7 +7289,7 @@
       </c>
       <c r="BE61" s="10">
         <f>AY61*(1-E61)</f>
-        <v>504464449275.532</v>
+        <v>504464449275.531</v>
       </c>
       <c r="BF61" s="10">
         <f>AZ61*(1-E61)</f>
@@ -7295,7 +7318,7 @@
     </row>
     <row r="62" s="9" customFormat="1" spans="1:64">
       <c r="A62" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -7369,7 +7392,7 @@
         <v>2008</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7377,7 +7400,7 @@
         <v>2009</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E64" s="4">
         <v>0.4689</v>
@@ -7394,7 +7417,7 @@
         <v>2010</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E65" s="4">
         <v>0.2002</v>
@@ -7411,7 +7434,7 @@
         <v>2011</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E66" s="4">
         <v>0.1289</v>
@@ -7428,7 +7451,7 @@
         <v>2012</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E67" s="4">
         <v>0.1432</v>
@@ -7445,7 +7468,7 @@
         <v>2013</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E68" s="4">
         <v>0.1901</v>
@@ -7468,7 +7491,7 @@
         <v>2014</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E69" s="4">
         <v>0.1075</v>
@@ -7491,7 +7514,7 @@
         <v>2015</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E70" s="4">
         <v>0.1172</v>
@@ -7514,7 +7537,7 @@
         <v>2016</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E71" s="4">
         <v>0.1192</v>
@@ -7537,7 +7560,7 @@
         <v>2017</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E72" s="4">
         <v>0.1183</v>
@@ -7560,7 +7583,7 @@
         <v>2018</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E73" s="4">
         <v>0.1394</v>
@@ -7583,7 +7606,7 @@
         <v>2019</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E74" s="4">
         <v>0.2138</v>
@@ -7606,7 +7629,7 @@
         <v>2020</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E75" s="4">
         <v>0.2179</v>
@@ -7629,7 +7652,7 @@
         <v>2021</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E76" s="4">
         <v>0.1094</v>
@@ -7649,7 +7672,7 @@
     </row>
     <row r="77" s="9" customFormat="1" spans="1:64">
       <c r="A77" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -7723,7 +7746,7 @@
         <v>2014</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J78" s="1">
         <v>14.29</v>
@@ -7737,7 +7760,7 @@
         <v>2015</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J79" s="1">
         <v>13.8</v>
@@ -7751,7 +7774,7 @@
         <v>2016</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J80" s="1">
         <v>14.38</v>
@@ -7765,7 +7788,7 @@
         <v>2017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J81" s="1">
         <v>16.07</v>
@@ -7779,7 +7802,7 @@
         <v>2018</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J82" s="1">
         <v>14.43</v>
@@ -7793,7 +7816,7 @@
         <v>2019</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J83" s="1">
         <v>16.14</v>
@@ -7807,7 +7830,7 @@
         <v>2020</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J84" s="1">
         <v>16.13</v>
@@ -7821,7 +7844,7 @@
         <v>2021</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J85" s="1">
         <v>24.24</v>
@@ -7832,7 +7855,7 @@
     </row>
     <row r="86" s="9" customFormat="1" spans="1:64">
       <c r="A86" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -7906,7 +7929,7 @@
         <v>2011</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E87" s="4">
         <v>0.3549</v>
@@ -7923,7 +7946,7 @@
         <v>2012</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E88" s="4">
         <v>0.3566</v>
@@ -7940,7 +7963,7 @@
         <v>2013</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E89" s="4">
         <v>0.3016</v>
@@ -7957,7 +7980,7 @@
         <v>2014</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E90" s="4">
         <v>0.3401</v>
@@ -7974,7 +7997,7 @@
         <v>2015</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E91" s="4">
         <v>0.3658</v>
@@ -7997,7 +8020,7 @@
         <v>2016</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E92" s="4">
         <v>0.2339</v>
@@ -8020,7 +8043,7 @@
         <v>2017</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93" s="4">
         <v>0.3174</v>
@@ -8043,7 +8066,7 @@
         <v>2018</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E94" s="4">
         <v>0.3368</v>
@@ -8066,7 +8089,7 @@
         <v>2019</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E95" s="4">
         <v>0.1535</v>
@@ -8089,7 +8112,7 @@
         <v>2020</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E96" s="4">
         <v>0.0868</v>
@@ -8112,7 +8135,7 @@
         <v>2021</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E97" s="4">
         <v>0.1255</v>
@@ -8135,7 +8158,7 @@
     </row>
     <row r="98" s="9" customFormat="1" spans="1:64">
       <c r="A98" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -8209,7 +8232,7 @@
         <v>2018</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99" s="4">
         <v>0.2592</v>
@@ -8226,7 +8249,7 @@
         <v>2019</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E100" s="4">
         <v>0.1939</v>
@@ -8249,7 +8272,7 @@
         <v>2020</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E101" s="4">
         <v>0.0871</v>
@@ -8272,7 +8295,7 @@
         <v>2021</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E102" s="4">
         <v>0.0707</v>
@@ -8292,7 +8315,7 @@
     </row>
     <row r="103" s="9" customFormat="1" spans="1:64">
       <c r="A103" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -8363,7 +8386,7 @@
         <v>2012</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E104" s="4">
         <v>0.5841</v>
@@ -8380,7 +8403,7 @@
         <v>2013</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E105" s="4">
         <v>0.5518</v>
@@ -8397,7 +8420,7 @@
         <v>2014</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E106" s="4">
         <v>0.5474</v>
@@ -8414,7 +8437,7 @@
         <v>2015</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E107" s="4">
         <v>0.5558</v>
@@ -8431,7 +8454,7 @@
         <v>2016</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E108" s="4">
         <v>0.5085</v>
@@ -8448,7 +8471,7 @@
         <v>2017</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E109" s="4">
         <v>0.5785</v>
@@ -8465,7 +8488,7 @@
         <v>2018</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E110" s="4">
         <v>0.6425</v>
@@ -8482,7 +8505,7 @@
         <v>2019</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E111" s="4">
         <v>0.5448</v>
@@ -8499,7 +8522,7 @@
         <v>2020</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" s="4">
         <v>0.4911</v>
@@ -8516,7 +8539,7 @@
         <v>2021</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E113" s="4">
         <v>0.4918</v>
@@ -8530,7 +8553,7 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -8538,7 +8561,7 @@
         <v>2013</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E115" s="4">
         <v>0.2359</v>
@@ -8555,7 +8578,7 @@
         <v>2014</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E116" s="4">
         <v>0.2479</v>
@@ -8572,7 +8595,7 @@
         <v>2015</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E117" s="4">
         <v>0.2894</v>
@@ -8589,7 +8612,7 @@
         <v>2016</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E118" s="4">
         <v>0.2666</v>
@@ -8606,7 +8629,7 @@
         <v>2017</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E119" s="4">
         <v>0.3212</v>
@@ -8623,7 +8646,7 @@
         <v>2018</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E120" s="4">
         <v>0.3362</v>
@@ -8640,7 +8663,7 @@
         <v>2019</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E121" s="4">
         <v>0.3822</v>
@@ -8657,7 +8680,7 @@
         <v>2020</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E122" s="4">
         <v>0.3487</v>
@@ -8674,7 +8697,7 @@
         <v>2021</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E123" s="4">
         <v>0.371</v>
@@ -8688,7 +8711,7 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -8696,7 +8719,7 @@
         <v>2013</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E125" s="4">
         <v>0.6007</v>
@@ -8713,7 +8736,7 @@
         <v>2014</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E126" s="4">
         <v>0.4994</v>
@@ -8730,7 +8753,7 @@
         <v>2015</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E127" s="4">
         <v>0.6519</v>
@@ -8747,7 +8770,7 @@
         <v>2016</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E128" s="4">
         <v>0.5842</v>
@@ -8764,7 +8787,7 @@
         <v>2017</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E129" s="4">
         <v>0.5322</v>
@@ -8781,7 +8804,7 @@
         <v>2018</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E130" s="4">
         <v>0.4066</v>
@@ -8798,7 +8821,7 @@
         <v>2019</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E131" s="4">
         <v>0.4263</v>
@@ -8815,7 +8838,7 @@
         <v>2020</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E132" s="4">
         <v>0.4948</v>
@@ -8832,7 +8855,7 @@
         <v>2021</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E133" s="4">
         <v>0.5236</v>
@@ -8846,7 +8869,7 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8955,7 +8978,7 @@
     </row>
     <row r="148" s="9" customFormat="1" spans="1:64">
       <c r="A148" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -9026,7 +9049,7 @@
         <v>2010</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -9034,7 +9057,7 @@
         <v>2011</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -9042,7 +9065,7 @@
         <v>2012</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -9050,7 +9073,7 @@
         <v>2013</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -9058,7 +9081,7 @@
         <v>2014</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -9066,7 +9089,7 @@
         <v>2015</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -9074,7 +9097,7 @@
         <v>2016</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -9082,7 +9105,7 @@
         <v>2017</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -9090,7 +9113,7 @@
         <v>2018</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -9098,7 +9121,7 @@
         <v>2019</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -9106,7 +9129,7 @@
         <v>2020</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -9114,12 +9137,12 @@
         <v>2021</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -9176,31 +9199,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -9237,25 +9260,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9400,7 +9423,7 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -9564,7 +9587,7 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -9594,7 +9617,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1">
         <v>0.97</v>
@@ -9700,7 +9723,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -9861,7 +9884,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -9994,7 +10017,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6">
@@ -10155,7 +10178,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6">
@@ -10316,7 +10339,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6">
@@ -10363,25 +10386,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7">
